--- a/biology/Botanique/Varronia/Varronia.xlsx
+++ b/biology/Botanique/Varronia/Varronia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Varronia est un genre d'arbustes et d'arbres de la famille des Cordiaceae (anciennement inclus dans genre Cordia[3],[4] et dans la famille des Boraginaceae), comptant environ 163-245 espèces, et dont l'espèce type est Varronia corymbosa Desv.. Environ 300 espèces originaires des Amériques tropicales et tempérées chaudes (de l'Arizona à l'Argentine).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Varronia est un genre d'arbustes et d'arbres de la famille des Cordiaceae (anciennement inclus dans genre Cordia, et dans la famille des Boraginaceae), comptant environ 163-245 espèces, et dont l'espèce type est Varronia corymbosa Desv.. Environ 300 espèces originaires des Amériques tropicales et tempérées chaudes (de l'Arizona à l'Argentine).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1756, le botaniste Patrick Browne propose le protologue suivant[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1756, le botaniste Patrick Browne propose le protologue suivant : 
 « VARRONIA (a) i . Fruticoſa foliis rugoſis ovatis ſubhirſutis ſerratis alternis, capitulis ſubrotundis. Tab. 13. f. 2.Lantana Foliis alternis floribus corimboſis. L. Sp. Pl. alternis.Periclimenum Rectum, &amp;c. foliis alternatum ſitis. Slo. Cat. 164. &amp; H, t. 194 
 The round ſpiked Varronia
 Receptaculum. - Commune ſimplex in caput ſtinctum colligit fiores ſepiles.
@@ -551,9 +565,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (15 mai 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (15 mai 2022) :
 Varronia acunae Moldenke
 Varronia acuta (Pittier) Borhidi
 Varronia alnifolia Hornem.
@@ -720,7 +736,7 @@
 Varronia villicaulis (Fresen.) Borhidi
 Varronia wagnerorum (R.A.Howard) Borhidi
 Varronia xinguana T.S.Silva &amp; J.I.M.Melo
-Selon Tropicos                                           (11 mai 2022)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 mai 2022) (Attention liste brute contenant possiblement des synonymes) :
 Varronia abyssinica (R. Br.) DC., 1845
 Varronia acunae Moldenke, 1946
 Varronia acuta (Pittier) Borhidi, 1988
@@ -798,7 +814,7 @@
 Varronia exarata (Urb.) Borhidi, 1988
 Varronia fasciata (Leonard &amp; Alain) Borhidi, 1988
 Varronia fasciculata (Urb. &amp; Ekman) Borhidi, 1988
-Varronia ferruginea Lam., 1791 [1792]
+Varronia ferruginea Lam., 1791 
 Varronia ferruginea Poir., 1797
 Varronia ferruginea Desv., 1809
 Varronia flava Andersson, 1855
@@ -956,7 +972,7 @@
 Varronia tobagensis (Urb.) Borhidi, 1988
 Varronia tomentosa Lam., 1791
 Varronia truncata (Fresen.) Borhidi, 1988
-Varronia tuberosa Sessé &amp; Moc., 1887 [1888]
+Varronia tuberosa Sessé &amp; Moc., 1887 
 Varronia ulmifolia Dum. Cours., 1802
 Varronia urticacea (Standl.) Friesen, 1933
 Varronia urticifolia (Cham.) J.S. Mill., 2007
